--- a/Data/052018/nangsuat.xlsx
+++ b/Data/052018/nangsuat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4012792-652B-4D8E-B08B-95562A66CE32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F200B368-4E45-4969-A9A3-DBF964DDC79C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/052018/nangsuat.xlsx
+++ b/Data/052018/nangsuat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F200B368-4E45-4969-A9A3-DBF964DDC79C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19C1E58A-53A5-4B73-9BA6-7689CA81FC61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>x01593</t>
+    <t>ns 01593</t>
   </si>
   <si>
-    <t>x03166</t>
+    <t>no 01593</t>
   </si>
   <si>
-    <t>x05605</t>
+    <t>thu no 01593</t>
+  </si>
+  <si>
+    <t>ns 03166</t>
+  </si>
+  <si>
+    <t>no 03166</t>
+  </si>
+  <si>
+    <t>thu no 03166</t>
+  </si>
+  <si>
+    <t>ns 05605</t>
+  </si>
+  <si>
+    <t>no 05605</t>
+  </si>
+  <si>
+    <t>thu no 05605</t>
   </si>
 </sst>
 </file>
@@ -38,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -52,6 +70,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -82,9 +117,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,53 +441,72 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -458,217 +516,569 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>43221</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="L2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>43222</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6">
+        <v>39180</v>
+      </c>
+      <c r="G3" s="6">
+        <f>970</f>
+        <v>970</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <v>11130</v>
+      </c>
+      <c r="K3" s="6">
+        <f>2680+800</f>
+        <v>3480</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>43223</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="5">
+        <v>27668</v>
+      </c>
+      <c r="C4" s="5">
+        <f>1700+90</f>
+        <v>1790</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>57460</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
+        <v>13500</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>43224</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>27350</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>43760</v>
+      </c>
+      <c r="G5" s="5">
+        <f>820</f>
+        <v>820</v>
+      </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
+        <v>12450</v>
+      </c>
+      <c r="K5">
+        <f>3790</f>
+        <v>3790</v>
+      </c>
+      <c r="L5" s="5">
+        <f>500</f>
+        <v>500</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43225</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="5">
+        <v>18520</v>
+      </c>
+      <c r="C6" s="5">
+        <f>2000+1650</f>
+        <v>3650</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>41750</v>
+      </c>
+      <c r="G6" s="5">
+        <f>6020</f>
+        <v>6020</v>
+      </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
+        <v>18950</v>
+      </c>
+      <c r="K6">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43226</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>48110</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>44290</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
+        <v>20785</v>
+      </c>
+      <c r="K7">
+        <f>5230+2000</f>
+        <v>7230</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43227</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="5">
+        <v>16860</v>
+      </c>
+      <c r="C8" s="5">
+        <f>2070</f>
+        <v>2070</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>30190</v>
+      </c>
+      <c r="G8" s="5">
+        <f>400+1050</f>
+        <v>1450</v>
+      </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>43228</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="5">
+        <v>24475</v>
+      </c>
+      <c r="C9" s="5">
+        <f>3010</f>
+        <v>3010</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>48540</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>43229</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="5">
+        <v>25447</v>
+      </c>
+      <c r="C10" s="5">
+        <f>610+4770+925+160</f>
+        <v>6465</v>
+      </c>
+      <c r="D10" s="5">
+        <f>720</f>
+        <v>720</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>41090</v>
+      </c>
+      <c r="G10" s="5">
+        <f>770+1550+740</f>
+        <v>3060</v>
+      </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43230</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="5">
+        <v>55400</v>
+      </c>
+      <c r="C11" s="5">
+        <f>2900</f>
+        <v>2900</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>29390</v>
+      </c>
+      <c r="G11" s="5">
+        <f>1550+260</f>
+        <v>1810</v>
+      </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43231</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5">
+        <v>26100</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>43610</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="5"/>
+      <c r="J12" s="6">
+        <v>6540</v>
+      </c>
+      <c r="K12">
+        <f>610</f>
+        <v>610</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43232</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5">
+        <v>26100</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="5">
+        <f>2900</f>
+        <v>2900</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>17220</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f>740</f>
+        <v>740</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>43233</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="5">
+        <v>23610</v>
+      </c>
+      <c r="C14" s="5">
+        <f>725+4050+1000+3500</f>
+        <v>9275</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>16830</v>
+      </c>
+      <c r="G14" s="5">
+        <f>520+190</f>
+        <v>710</v>
+      </c>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="5"/>
+      <c r="J14" s="6">
+        <v>22860</v>
+      </c>
+      <c r="K14">
+        <f>1520+100+3530</f>
+        <v>5150</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>43234</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="5">
+        <v>26610</v>
+      </c>
+      <c r="C15" s="5">
+        <f>2100</f>
+        <v>2100</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>13100</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="5"/>
+      <c r="J15" s="6">
+        <v>13380</v>
+      </c>
+      <c r="L15" s="5">
+        <f>500</f>
+        <v>500</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>43235</v>
       </c>
+      <c r="B16" s="5">
+        <v>10063</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+      <c r="J16" s="6">
+        <v>20787</v>
+      </c>
+      <c r="K16">
+        <f>1040+1240</f>
+        <v>2280</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>43236</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="5">
+        <v>28170</v>
+      </c>
+      <c r="C17" s="5">
+        <f>2000+3100+11700+13200</f>
+        <v>30000</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>23810</v>
+      </c>
+      <c r="G17" s="5">
+        <f>1390</f>
+        <v>1390</v>
+      </c>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="5"/>
+      <c r="J17" s="6">
+        <v>3730</v>
+      </c>
+      <c r="K17">
+        <f>550</f>
+        <v>550</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>43237</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5">
+        <v>25160</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>25490</v>
+      </c>
+      <c r="G18" s="5">
+        <f>1020</f>
+        <v>1020</v>
+      </c>
+      <c r="H18" s="5">
+        <f>1390</f>
+        <v>1390</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>43238</v>
       </c>
+      <c r="B19" s="5">
+        <v>17060</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>12500</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>43239</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5">
+        <v>36200</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>17730</v>
+      </c>
+      <c r="G20" s="5">
+        <f>395</f>
+        <v>395</v>
+      </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+      <c r="J20" s="6">
+        <v>16220</v>
+      </c>
+      <c r="K20">
+        <f>1000+2040+3000+385</f>
+        <v>6425</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>43240</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5">
+        <v>12822</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>15750</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+      <c r="J21" s="6">
+        <v>18050</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>43241</v>
       </c>
       <c r="B22" s="5">
         <v>31300</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>14530</v>
       </c>
-      <c r="D22" s="6">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
+        <v>400</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6">
         <v>8020</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <f>504</f>
+        <v>504</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>43242</v>
       </c>
@@ -676,11 +1086,17 @@
         <v>15610</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43243</v>
       </c>
@@ -688,114 +1104,245 @@
         <v>29900</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6">
         <v>5230</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <f>360+430+380+840+200</f>
+        <v>2210</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43244</v>
       </c>
       <c r="B25" s="5">
         <v>9145</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6">
+      <c r="C25" s="5">
+        <f>1820+750</f>
+        <v>2570</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6">
         <v>10340</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <f>910+525</f>
+        <v>1435</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43245</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="5">
+        <v>32500</v>
+      </c>
+      <c r="C26" s="5">
+        <f>230+460</f>
+        <v>690</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>18230</v>
+      </c>
+      <c r="G26" s="5">
+        <f>260+500</f>
+        <v>760</v>
+      </c>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I26" s="5"/>
+      <c r="J26" s="6">
+        <v>3450</v>
+      </c>
+      <c r="K26">
+        <f>1040</f>
+        <v>1040</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>43246</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>7590</v>
+      </c>
+      <c r="C27" s="5">
+        <f>880+380</f>
+        <v>1260</v>
+      </c>
+      <c r="D27" s="5">
+        <f>910</f>
+        <v>910</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>18220</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <f>1020</f>
+        <v>1020</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>43247</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5">
+        <v>13820</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>27380</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>43248</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="F29" s="5"/>
+      <c r="B29" s="5">
+        <v>21370</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>13100</v>
+      </c>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>43249</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5">
+        <v>7400</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>8490</v>
+      </c>
+      <c r="G30" s="5">
+        <f>15080+1000</f>
+        <v>16080</v>
+      </c>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I30" s="5"/>
+      <c r="J30" s="6">
+        <v>11430</v>
+      </c>
+      <c r="K30" s="5">
+        <f>1440+800+325</f>
+        <v>2565</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>43250</v>
       </c>
+      <c r="B31" s="5">
+        <v>23700</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:32" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>43251</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="8">
+        <v>17270</v>
+      </c>
+      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8">
+        <v>12690</v>
+      </c>
+      <c r="G32" s="8">
+        <f>1150</f>
+        <v>1150</v>
+      </c>
+      <c r="H32" s="8">
+        <f>770</f>
+        <v>770</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="10">
+        <v>5410</v>
+      </c>
+      <c r="K32" s="8">
+        <f>1405</f>
+        <v>1405</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
     </row>
     <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -805,5 +1352,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/052018/nangsuat.xlsx
+++ b/Data/052018/nangsuat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19C1E58A-53A5-4B73-9BA6-7689CA81FC61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00879A2B-611C-4CCF-9EE7-A09144B7CEED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,10 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -560,8 +560,8 @@
         <v>11130</v>
       </c>
       <c r="K3" s="6">
-        <f>2680+800</f>
-        <v>3480</v>
+        <f>2680</f>
+        <v>2680</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="5"/>
@@ -574,8 +574,7 @@
         <v>27668</v>
       </c>
       <c r="C4" s="5">
-        <f>1700+90</f>
-        <v>1790</v>
+        <v>1700</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -598,17 +597,18 @@
       <c r="B5" s="5">
         <v>27350</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <v>820</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>43760</v>
-      </c>
-      <c r="G5" s="5">
-        <f>820</f>
-        <v>820</v>
-      </c>
-      <c r="H5" s="5"/>
+        <v>35770</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>7980</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6">
         <v>12450</v>
@@ -686,22 +686,26 @@
         <v>43227</v>
       </c>
       <c r="B8" s="5">
-        <v>16860</v>
+        <v>16060</v>
       </c>
       <c r="C8" s="5">
         <f>2070</f>
         <v>2070</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>800</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>30190</v>
+        <v>29460</v>
       </c>
       <c r="G8" s="5">
         <f>400+1050</f>
         <v>1450</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>1170</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="L8" s="5"/>
@@ -712,7 +716,7 @@
         <v>43228</v>
       </c>
       <c r="B9" s="5">
-        <v>24475</v>
+        <v>24375</v>
       </c>
       <c r="C9" s="5">
         <f>3010</f>
@@ -735,15 +739,14 @@
         <v>43229</v>
       </c>
       <c r="B10" s="5">
-        <v>25447</v>
+        <v>24277</v>
       </c>
       <c r="C10" s="5">
         <f>610+4770+925+160</f>
         <v>6465</v>
       </c>
       <c r="D10" s="5">
-        <f>720</f>
-        <v>720</v>
+        <v>1170</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -764,7 +767,7 @@
         <v>43230</v>
       </c>
       <c r="B11" s="5">
-        <v>55400</v>
+        <v>55620</v>
       </c>
       <c r="C11" s="5">
         <f>2900</f>
@@ -773,13 +776,12 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>29390</v>
-      </c>
-      <c r="G11" s="5">
-        <f>1550+260</f>
-        <v>1810</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>27840</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>1550</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
       <c r="L11" s="5"/>
@@ -796,7 +798,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>43610</v>
+        <v>43010</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -825,7 +827,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>17220</v>
+        <v>16480</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5">
@@ -845,17 +847,15 @@
         <v>23610</v>
       </c>
       <c r="C14" s="5">
-        <f>725+4050+1000+3500</f>
-        <v>9275</v>
+        <v>6370</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>16830</v>
+        <v>16590</v>
       </c>
       <c r="G14" s="5">
-        <f>520+190</f>
-        <v>710</v>
+        <v>520</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -874,16 +874,17 @@
         <v>43234</v>
       </c>
       <c r="B15" s="5">
-        <v>26610</v>
+        <v>25910</v>
       </c>
       <c r="C15" s="5">
-        <f>2100</f>
-        <v>2100</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>4850</v>
+      </c>
+      <c r="D15" s="5">
+        <v>700</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -929,8 +930,7 @@
         <v>28170</v>
       </c>
       <c r="C17" s="5">
-        <f>2000+3100+11700+13200</f>
-        <v>30000</v>
+        <v>32700</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -970,10 +970,7 @@
         <f>1020</f>
         <v>1020</v>
       </c>
-      <c r="H18" s="5">
-        <f>1390</f>
-        <v>1390</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
       <c r="L18" s="5"/>
@@ -1033,7 +1030,7 @@
         <v>43240</v>
       </c>
       <c r="B21" s="5">
-        <v>12822</v>
+        <v>12550</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1055,17 +1052,19 @@
         <v>43241</v>
       </c>
       <c r="B22" s="5">
-        <v>31300</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>31000</v>
+      </c>
+      <c r="C22" s="5">
+        <v>440</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>14530</v>
+        <v>13570</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
-        <v>400</v>
+        <v>920</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6">
@@ -1082,9 +1081,7 @@
       <c r="A23" s="4">
         <v>43242</v>
       </c>
-      <c r="B23" s="5">
-        <v>15610</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1092,7 +1089,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>15610</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="N23" s="5"/>
     </row>
@@ -1101,9 +1100,11 @@
         <v>43243</v>
       </c>
       <c r="B24" s="5">
-        <v>29900</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>29290</v>
+      </c>
+      <c r="C24" s="5">
+        <v>220</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1125,7 +1126,7 @@
         <v>43244</v>
       </c>
       <c r="B25" s="5">
-        <v>9145</v>
+        <v>9545</v>
       </c>
       <c r="C25" s="5">
         <f>1820+750</f>
@@ -1152,13 +1153,15 @@
         <v>43245</v>
       </c>
       <c r="B26" s="5">
-        <v>32500</v>
+        <v>26920</v>
       </c>
       <c r="C26" s="5">
         <f>230+460</f>
         <v>690</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>3840</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
         <v>18230</v>
@@ -1187,16 +1190,12 @@
         <v>7590</v>
       </c>
       <c r="C27" s="5">
-        <f>880+380</f>
-        <v>1260</v>
-      </c>
-      <c r="D27" s="5">
-        <f>910</f>
-        <v>910</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <v>18220</v>
+        <v>17200</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
@@ -1213,16 +1212,20 @@
         <v>43247</v>
       </c>
       <c r="B28" s="5">
-        <v>13820</v>
+        <v>13640</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>180</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <v>27380</v>
+        <v>25920</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>1460</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
       <c r="L28" s="5"/>
@@ -1238,9 +1241,11 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>13100</v>
-      </c>
-      <c r="H29" s="5"/>
+        <v>12600</v>
+      </c>
+      <c r="H29" s="5">
+        <v>500</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
       <c r="L29" s="5"/>
@@ -1260,8 +1265,7 @@
         <v>8490</v>
       </c>
       <c r="G30" s="5">
-        <f>15080+1000</f>
-        <v>16080</v>
+        <v>19080</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1280,7 +1284,7 @@
         <v>43250</v>
       </c>
       <c r="B31" s="5">
-        <v>23700</v>
+        <v>23740</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1304,15 +1308,14 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
-        <v>12690</v>
+        <v>10920</v>
       </c>
       <c r="G32" s="8">
         <f>1150</f>
         <v>1150</v>
       </c>
       <c r="H32" s="8">
-        <f>770</f>
-        <v>770</v>
+        <v>1770</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="10">

--- a/Data/052018/nangsuat.xlsx
+++ b/Data/052018/nangsuat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{00879A2B-611C-4CCF-9EE7-A09144B7CEED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F4F9FE7-B0A8-4F9D-B848-4129B710867D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,10 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,8 +863,7 @@
         <v>22860</v>
       </c>
       <c r="K14">
-        <f>1520+100+3530</f>
-        <v>5150</v>
+        <v>9150</v>
       </c>
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
@@ -947,8 +946,7 @@
         <v>3730</v>
       </c>
       <c r="K17">
-        <f>550</f>
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="L17" s="5"/>
       <c r="N17" s="5"/>
@@ -1019,10 +1017,11 @@
         <v>16220</v>
       </c>
       <c r="K20">
-        <f>1000+2040+3000+385</f>
-        <v>6425</v>
-      </c>
-      <c r="L20" s="5"/>
+        <v>4750</v>
+      </c>
+      <c r="L20" s="5">
+        <v>660</v>
+      </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1115,8 +1114,7 @@
         <v>5230</v>
       </c>
       <c r="K24">
-        <f>360+430+380+840+200</f>
-        <v>2210</v>
+        <v>1420</v>
       </c>
       <c r="L24" s="5"/>
       <c r="N24" s="5"/>
@@ -1142,8 +1140,7 @@
         <v>10340</v>
       </c>
       <c r="K25">
-        <f>910+525</f>
-        <v>1435</v>
+        <v>910</v>
       </c>
       <c r="L25" s="5"/>
       <c r="N25" s="5"/>

--- a/Data/052018/nangsuat.xlsx
+++ b/Data/052018/nangsuat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\html\live\luong.diepxuan.vn\Data\052018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F4F9FE7-B0A8-4F9D-B848-4129B710867D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C33EDF27-4710-4071-A05F-904B4B66F016}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
@@ -603,10 +603,11 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>35770</v>
+        <v>43760</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5">
+        <f>7500+480</f>
         <v>7980</v>
       </c>
       <c r="I5" s="5"/>
@@ -686,24 +687,26 @@
         <v>43227</v>
       </c>
       <c r="B8" s="5">
-        <v>16060</v>
+        <v>16860</v>
       </c>
       <c r="C8" s="5">
         <f>2070</f>
         <v>2070</v>
       </c>
       <c r="D8" s="5">
+        <f>800</f>
         <v>800</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>29460</v>
+        <v>30190</v>
       </c>
       <c r="G8" s="5">
         <f>400+1050</f>
         <v>1450</v>
       </c>
       <c r="H8" s="5">
+        <f>1170</f>
         <v>1170</v>
       </c>
       <c r="I8" s="5"/>
@@ -739,13 +742,14 @@
         <v>43229</v>
       </c>
       <c r="B10" s="5">
-        <v>24277</v>
+        <v>25447</v>
       </c>
       <c r="C10" s="5">
         <f>610+4770+925+160</f>
         <v>6465</v>
       </c>
       <c r="D10" s="5">
+        <f>450+720</f>
         <v>1170</v>
       </c>
       <c r="E10" s="5"/>
@@ -767,7 +771,7 @@
         <v>43230</v>
       </c>
       <c r="B11" s="5">
-        <v>55620</v>
+        <v>55400</v>
       </c>
       <c r="C11" s="5">
         <f>2900</f>
@@ -776,10 +780,11 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>27840</v>
+        <v>29390</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
+        <f>1550</f>
         <v>1550</v>
       </c>
       <c r="I11" s="5"/>
@@ -818,7 +823,7 @@
         <v>43232</v>
       </c>
       <c r="B13" s="5">
-        <v>26100</v>
+        <v>26260</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -827,7 +832,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
-        <v>16480</v>
+        <v>17220</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5">
@@ -847,14 +852,16 @@
         <v>23610</v>
       </c>
       <c r="C14" s="5">
-        <v>6370</v>
+        <f>725+2400+1000+3500</f>
+        <v>7625</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>16590</v>
+        <v>16470</v>
       </c>
       <c r="G14" s="5">
+        <f>520</f>
         <v>520</v>
       </c>
       <c r="H14" s="5"/>
@@ -863,7 +870,8 @@
         <v>22860</v>
       </c>
       <c r="K14">
-        <v>9150</v>
+        <f>1520+3530</f>
+        <v>5050</v>
       </c>
       <c r="L14" s="5"/>
       <c r="N14" s="5"/>
@@ -873,14 +881,13 @@
         <v>43234</v>
       </c>
       <c r="B15" s="5">
-        <v>25910</v>
+        <v>26610</v>
       </c>
       <c r="C15" s="5">
-        <v>4850</v>
-      </c>
-      <c r="D15" s="5">
-        <v>700</v>
-      </c>
+        <f>2100</f>
+        <v>2100</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
         <v>13000</v>
@@ -929,7 +936,8 @@
         <v>28170</v>
       </c>
       <c r="C17" s="5">
-        <v>32700</v>
+        <f>2000+3100+11700+13200</f>
+        <v>30000</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -946,7 +954,8 @@
         <v>3730</v>
       </c>
       <c r="K17">
-        <v>520</v>
+        <f>550</f>
+        <v>550</v>
       </c>
       <c r="L17" s="5"/>
       <c r="N17" s="5"/>
@@ -968,7 +977,10 @@
         <f>1020</f>
         <v>1020</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <f>1390</f>
+        <v>1390</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
       <c r="L18" s="5"/>
@@ -1017,10 +1029,12 @@
         <v>16220</v>
       </c>
       <c r="K20">
-        <v>4750</v>
+        <f>1000+2040+1710+3000+385</f>
+        <v>8135</v>
       </c>
       <c r="L20" s="5">
-        <v>660</v>
+        <f>550</f>
+        <v>550</v>
       </c>
       <c r="N20" s="5"/>
     </row>
@@ -1054,15 +1068,17 @@
         <v>31000</v>
       </c>
       <c r="C22" s="5">
+        <f>260+180</f>
         <v>440</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
-        <v>13570</v>
+        <v>14530</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5">
+        <f>400+520</f>
         <v>920</v>
       </c>
       <c r="I22" s="5"/>
@@ -1101,9 +1117,7 @@
       <c r="B24" s="5">
         <v>29290</v>
       </c>
-      <c r="C24" s="5">
-        <v>220</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1114,6 +1128,7 @@
         <v>5230</v>
       </c>
       <c r="K24">
+        <f>380+840+200</f>
         <v>1420</v>
       </c>
       <c r="L24" s="5"/>
@@ -1140,6 +1155,7 @@
         <v>10340</v>
       </c>
       <c r="K25">
+        <f>910</f>
         <v>910</v>
       </c>
       <c r="L25" s="5"/>
@@ -1150,13 +1166,14 @@
         <v>43245</v>
       </c>
       <c r="B26" s="5">
-        <v>26920</v>
+        <v>30650</v>
       </c>
       <c r="C26" s="5">
         <f>230+460</f>
         <v>690</v>
       </c>
       <c r="D26" s="5">
+        <f>2700+1140</f>
         <v>3840</v>
       </c>
       <c r="E26" s="5"/>
@@ -1187,12 +1204,13 @@
         <v>7590</v>
       </c>
       <c r="C27" s="5">
-        <v>882</v>
+        <f>880</f>
+        <v>880</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <v>17200</v>
+        <v>18220</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5">
@@ -1209,15 +1227,16 @@
         <v>43247</v>
       </c>
       <c r="B28" s="5">
-        <v>13640</v>
+        <v>13820</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5">
-        <v>180</v>
+        <f>180+1820</f>
+        <v>2000</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <v>25920</v>
+        <v>27380</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5">
@@ -1235,10 +1254,13 @@
       <c r="B29" s="5">
         <v>21370</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <f>820</f>
+        <v>820</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H29" s="5">
         <v>500</v>
@@ -1262,6 +1284,7 @@
         <v>8490</v>
       </c>
       <c r="G30" s="5">
+        <f>18080+1000</f>
         <v>19080</v>
       </c>
       <c r="H30" s="5"/>
@@ -1312,6 +1335,7 @@
         <v>1150</v>
       </c>
       <c r="H32" s="8">
+        <f>1000+770</f>
         <v>1770</v>
       </c>
       <c r="I32" s="8"/>
@@ -1319,10 +1343,13 @@
         <v>5410</v>
       </c>
       <c r="K32" s="8">
-        <f>1405</f>
-        <v>1405</v>
-      </c>
-      <c r="L32" s="8"/>
+        <f>980</f>
+        <v>980</v>
+      </c>
+      <c r="L32" s="8">
+        <f>504</f>
+        <v>504</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
